--- a/similarities/split_global/harmonic_similarity_timestamps_364.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_364.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,718 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>isophonics_288</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:54.300000', '0:02:03.140000'), ('0:00:19.820000', '0:00:29.100000')]</t>
+          <t>('0:00:16.701519', '0:00:23.528185')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:26.260000', '0:01:32.700000'), ('0:01:58.180000', '0:02:03.040000')]</t>
+          <t>('0:00:44.820000', '0:00:47.280000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=114.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=19.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=16.701519</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=86.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=118.18']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=44.82</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>isophonics_181</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['Bb', 'Eb', 'Bb']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:24.580000', '0:00:32.940000')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:07.360000', '0:00:17.780000')]</t>
+          <t>('0:01:00.761383', '0:01:09.294716')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=24.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=7.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['F#:min', 'B:min/F#', 'F#:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+          <t>('0:00:35.888000', '0:00:38.359000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
+          <t>('0:00:00.560000', '0:00:04.260000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=35.888</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=0.56</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['A:min', 'E:maj', 'A:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
+          <t>('0:00:09.140000', '0:00:16.920000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:14.800000', '0:01:21.060000')]</t>
+          <t>('0:00:13.500000', '0:00:21.900000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=9.14</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=74.8']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:03.200000', '0:01:13.120000')]</t>
+          <t>('0:00:16.040000', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=63.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Cb', 'Gb:7', 'Cb']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:46.759000', '0:00:50.551000')]</t>
+          <t>('0:00:54.180000', '0:01:01.460000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:03.820000', '0:01:08.260000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=46.759']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=63.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:29.500000', '0:00:31.640000')]</t>
+          <t>('0:00:48.250000', '0:00:59.490000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:39.800000', '0:00:45.400000')]</t>
+          <t>('0:00:09.940000', '0:00:12.540000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=29.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=39.8']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=9.94</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_182</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:02:03.220000', '0:02:06.880000')]</t>
+          <t>('0:02:34.020000', '0:02:39.240000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
+          <t>('0:00:55.680000', '0:01:02.280000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>isophonics_241</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
+          <t>['C', 'D:min', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F:maj', 'G:min/A#', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:16.341609', '0:00:25.141972')]</t>
+          <t>('0:01:42.694000', '0:01:52.530000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:02:04.920000', '0:02:09.880000')]</t>
+          <t>('0:00:22.200000', '0:00:29.160000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=16.341609']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=102.694</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=22.2</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:00:00.400000', '0:00:09.040000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:26.923922', '0:01:32.322562')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=0.4</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'E', 'B', 'C#:min']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'A:min7/C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'G', 'D/3', 'E:min']]</t>
+          <t>['C', 'G', 'A:min7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:23.528185', '0:00:29.008095')]</t>
+          <t>('0:01:05.020000', '0:01:08.080000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:08.605000', '0:00:14.901000')]</t>
+          <t>('0:00:14.565283', '0:00:18.936988')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=23.528185']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=65.02</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=8.605']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=14.565283</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+          <t>('0:00:54.400000', '0:01:01.440000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:00.866546', '0:00:12.917702')]</t>
+          <t>('0:00:11.950000', '0:00:15.800000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=54.4</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.866546']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=11.95</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>isophonics_76</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C', 'G', 'D/3']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:40.820000', '0:00:43.620000')]</t>
+          <t>('0:00:58.620000', '0:01:05.560000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:00:09.336000', '0:00:13.342000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=58.62</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=9.336</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>jaah_37</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>jaah_22</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A:min7', 'D:min7', 'G:7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:min7', 'C:min7', 'F:7']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:11.640000', '0:01:23.380000')]</t>
+          <t>('0:00:35.150000', '0:00:41.300000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:02:09.720000', '0:02:17.860000')]</t>
+          <t>('0:00:04.800000', '0:00:06.270000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=71.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-37#t=35.15</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=129.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-22#t=4.8</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_111</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>isophonics_101</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C', 'G:7', 'C']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['C#', 'F#/5', 'C#']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:10.519024', '0:01:15.720294')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:30.020000', '0:00:32.120000')]</t>
+          <t>('0:00:01.206300', '0:01:58.925813')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-111#t=70.519024']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=30.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
